--- a/media/output/result/sepsis_cases_1_Ncomplex_evaluation_weighted_edit_distance0.25,0.5,0.25.xlsx
+++ b/media/output/result/sepsis_cases_1_Ncomplex_evaluation_weighted_edit_distance0.25,0.5,0.25.xlsx
@@ -882,10 +882,10 @@
         <v>73</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -894,13 +894,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.8904109589041096</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.9420289855072463</v>
       </c>
     </row>
   </sheetData>
